--- a/Index/GP Nr. 13-15.xlsx
+++ b/Index/GP Nr. 13-15.xlsx
@@ -1354,6 +1354,9 @@
       <c r="K20" t="n">
         <v>120.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>121.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2294,6 +2297,9 @@
       <c r="K20" t="n">
         <v>114.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>114.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3234,6 +3240,9 @@
       <c r="K20" t="n">
         <v>127.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>128.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4174,6 +4183,9 @@
       <c r="K20" t="n">
         <v>111.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>111.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5114,6 +5126,9 @@
       <c r="K20" t="n">
         <v>111.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>111.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6054,6 +6069,9 @@
       <c r="K20" t="n">
         <v>102.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>102.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7254,6 +7272,9 @@
       <c r="K20" t="n">
         <v>126</v>
       </c>
+      <c r="L20" t="n">
+        <v>127.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8324,6 +8345,9 @@
       <c r="K20" t="n">
         <v>106.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>106.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9394,6 +9418,9 @@
       <c r="K20" t="n">
         <v>117.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>117.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10464,6 +10491,9 @@
       <c r="K20" t="n">
         <v>113.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>113.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11404,6 +11434,9 @@
       <c r="K20" t="n">
         <v>110.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>110.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12604,6 +12637,9 @@
       <c r="K20" t="n">
         <v>127</v>
       </c>
+      <c r="L20" t="n">
+        <v>127.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13544,6 +13580,9 @@
       <c r="K20" t="n">
         <v>110</v>
       </c>
+      <c r="L20" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14484,6 +14523,9 @@
       <c r="K20" t="n">
         <v>110.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>111.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15424,6 +15466,9 @@
       <c r="K20" t="n">
         <v>114.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>114.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16364,6 +16409,9 @@
       <c r="K20" t="n">
         <v>107.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>107.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17304,6 +17352,9 @@
       <c r="K20" t="n">
         <v>116.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>116.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18244,6 +18295,9 @@
       <c r="K20" t="n">
         <v>117.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>118.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -19444,6 +19498,9 @@
       <c r="K20" t="n">
         <v>119.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -20384,6 +20441,9 @@
       <c r="K20" t="n">
         <v>121.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>121.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -21324,6 +21384,9 @@
       <c r="K20" t="n">
         <v>118.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>124.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -22264,6 +22327,9 @@
       <c r="K20" t="n">
         <v>121.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>121.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -23204,6 +23270,9 @@
       <c r="K20" t="n">
         <v>120.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>120.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -24144,6 +24213,9 @@
       <c r="K20" t="n">
         <v>131.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>128.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">

--- a/Index/GP Nr. 13-15.xlsx
+++ b/Index/GP Nr. 13-15.xlsx
@@ -1,36 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GP = 13" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GP = 13 1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="GP = 13 2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GP = 13 3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="GP = 13 9" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="GP = 13 91" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="GP = 13 92" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="GP = 13 93" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="GP = 13 95" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="GP = 13 96" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="GP = 13 99" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="GP = 14" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="GP = 14 1" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="GP = 14 11" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="GP = 14 12" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="GP = 14 13" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="GP = 14 14" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="GP = 14 19" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="GP = 14 3" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="GP = 14 31" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="GP = 14 39" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="GP = 15" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="GP = 15 1" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="GP = 15 2" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 13" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 13 1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 13 2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 13 3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 13 9" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 13 91" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 13 92" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 13 93" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 13 95" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 13 96" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 13 99" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 14" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 14 1" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 14 11" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 14 12" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 14 13" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 14 14" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 14 19" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 14 3" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 14 31" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 14 39" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 15" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 15 1" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 15 2" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1357,6 +1357,12 @@
       <c r="L20" t="n">
         <v>121.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>121</v>
+      </c>
+      <c r="N20" t="n">
+        <v>117.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2300,6 +2306,12 @@
       <c r="L20" t="n">
         <v>114.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>114.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>111.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3243,6 +3255,12 @@
       <c r="L20" t="n">
         <v>128.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>124.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4186,6 +4204,12 @@
       <c r="L20" t="n">
         <v>111.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>109.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5129,6 +5153,12 @@
       <c r="L20" t="n">
         <v>111.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>109.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6072,6 +6102,12 @@
       <c r="L20" t="n">
         <v>102.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>101.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7275,6 +7311,12 @@
       <c r="L20" t="n">
         <v>127.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>127.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>122.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8348,6 +8390,12 @@
       <c r="L20" t="n">
         <v>106.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>104.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9421,6 +9469,12 @@
       <c r="L20" t="n">
         <v>117.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>117.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>114.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10494,6 +10548,12 @@
       <c r="L20" t="n">
         <v>113.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11437,6 +11497,12 @@
       <c r="L20" t="n">
         <v>110.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>110.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>109.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12640,6 +12706,12 @@
       <c r="L20" t="n">
         <v>127.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>127.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>121.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13583,6 +13655,12 @@
       <c r="L20" t="n">
         <v>110</v>
       </c>
+      <c r="M20" t="n">
+        <v>110</v>
+      </c>
+      <c r="N20" t="n">
+        <v>109.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14526,6 +14604,12 @@
       <c r="L20" t="n">
         <v>111.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>113</v>
+      </c>
+      <c r="N20" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15469,6 +15553,12 @@
       <c r="L20" t="n">
         <v>114.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>115</v>
+      </c>
+      <c r="N20" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16412,6 +16502,12 @@
       <c r="L20" t="n">
         <v>107.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>105.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17355,6 +17451,12 @@
       <c r="L20" t="n">
         <v>116.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>113.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18298,6 +18400,12 @@
       <c r="L20" t="n">
         <v>118.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>119.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>114.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -19501,6 +19609,12 @@
       <c r="L20" t="n">
         <v>120</v>
       </c>
+      <c r="M20" t="n">
+        <v>120.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>115.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -20444,6 +20558,12 @@
       <c r="L20" t="n">
         <v>121.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>121.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>117.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -21387,6 +21507,12 @@
       <c r="L20" t="n">
         <v>124.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>125.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>113.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -22330,6 +22456,12 @@
       <c r="L20" t="n">
         <v>121.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>121.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>117.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -23273,6 +23405,12 @@
       <c r="L20" t="n">
         <v>120.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>120.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -24216,6 +24354,12 @@
       <c r="L20" t="n">
         <v>128.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>125.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>126.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
